--- a/biology/Botanique/Prairie_d'herbes_mixtes/Prairie_d'herbes_mixtes.xlsx
+++ b/biology/Botanique/Prairie_d'herbes_mixtes/Prairie_d'herbes_mixtes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prairie_d%27herbes_mixtes</t>
+          <t>Prairie_d'herbes_mixtes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La prairie d'herbes mixtes est un écosystème situé dans les Grandes Plaines d'Amérique du Nord, qui assure la transition entre les prairies d'herbes courtes et les prairies d'herbes hautes.
 La prairie d'herbes mixtes est plus riche en diversité écologique que les deux autres types de prairies.
-Elle se rencontre dans la partie centrale des Grandes Plaines, sa largeur variant depuis le Texas central aux États--Unis jusque, vers le nord, au sud-est du Manitoba, de l'Alberta et du Saskatchewan au Canada[1].
-Les principales espèces de graminées présente dans la prairie d'herbes mixtes sont les suivantes : Elymus smithii, Koeleria pyramidata, Sporobolus cryptandrus et Stipa comata[1].
+Elle se rencontre dans la partie centrale des Grandes Plaines, sa largeur variant depuis le Texas central aux États--Unis jusque, vers le nord, au sud-est du Manitoba, de l'Alberta et du Saskatchewan au Canada.
+Les principales espèces de graminées présente dans la prairie d'herbes mixtes sont les suivantes : Elymus smithii, Koeleria pyramidata, Sporobolus cryptandrus et Stipa comata.
 </t>
         </is>
       </c>
